--- a/ISP_Billing_and_Management/APEX_Backups/payment_collections.xlsx
+++ b/ISP_Billing_and_Management/APEX_Backups/payment_collections.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="112">
   <si>
     <t>COLLECTION_ID</t>
   </si>
@@ -65,15 +65,12 @@
     <t xml:space="preserve">September </t>
   </si>
   <si>
-    <t>Rocker</t>
+    <t>Rocket</t>
   </si>
   <si>
     <t>Arif Hasan</t>
   </si>
   <si>
-    <t>Bkash</t>
-  </si>
-  <si>
     <t>Alo Hossen</t>
   </si>
   <si>
@@ -344,7 +341,7 @@
     <t>Leslie Daniels</t>
   </si>
   <si>
-    <t>Rocket</t>
+    <t xml:space="preserve">August   </t>
   </si>
   <si>
     <t>March</t>
@@ -447,8 +444,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" displayName="sheet1" ref="A1:K99" totalsRowShown="0" headerRowCount="1">
-  <autoFilter ref="A1:K99"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" displayName="sheet1" ref="A1:K110" totalsRowShown="0" headerRowCount="1">
+  <autoFilter ref="A1:K110"/>
   <tableColumns count="11">
     <tableColumn id="1" name="COLLECTION_ID"/>
     <tableColumn id="2" name="COLLECTION_DATE"/>
@@ -630,18 +627,18 @@
         <v>60187</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>45172</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>14</v>
@@ -666,13 +663,13 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>45173</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>14</v>
@@ -703,7 +700,7 @@
         <v>45174</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>14</v>
@@ -723,18 +720,18 @@
         <v>60190</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>45175</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>14</v>
@@ -759,13 +756,13 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="6" t="n">
         <v>45176</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>14</v>
@@ -790,13 +787,13 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>45177</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>14</v>
@@ -816,18 +813,18 @@
         <v>60193</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>45178</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>14</v>
@@ -852,13 +849,13 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>45179</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>14</v>
@@ -883,13 +880,13 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>45180</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>14</v>
@@ -909,18 +906,18 @@
         <v>60196</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>45181</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>14</v>
@@ -945,13 +942,13 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I15" s="6" t="n">
         <v>45182</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>14</v>
@@ -976,13 +973,13 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I16" s="6" t="n">
         <v>45183</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>14</v>
@@ -1002,18 +999,18 @@
         <v>60199</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>45184</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>14</v>
@@ -1038,13 +1035,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>45185</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>14</v>
@@ -1069,13 +1066,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>45186</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>14</v>
@@ -1095,18 +1092,18 @@
         <v>60202</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>45187</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>14</v>
@@ -1131,13 +1128,13 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I21" s="6" t="n">
         <v>45188</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>14</v>
@@ -1162,13 +1159,13 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>45189</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>14</v>
@@ -1188,18 +1185,18 @@
         <v>60205</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>45190</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>14</v>
@@ -1224,13 +1221,13 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I24" s="6" t="n">
         <v>45191</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>14</v>
@@ -1255,13 +1252,13 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>45192</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>14</v>
@@ -1281,18 +1278,18 @@
         <v>60208</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>45193</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>14</v>
@@ -1317,13 +1314,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I27" s="6" t="n">
         <v>45194</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>14</v>
@@ -1348,13 +1345,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I28" s="6" t="n">
         <v>45195</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>14</v>
@@ -1374,18 +1371,18 @@
         <v>60211</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I29" s="6" t="n">
         <v>45196</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>14</v>
@@ -1410,13 +1407,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I30" s="6" t="n">
         <v>45197</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>14</v>
@@ -1441,13 +1438,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>45198</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>14</v>
@@ -1467,18 +1464,18 @@
         <v>60214</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I32" s="6" t="n">
         <v>45199</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>14</v>
@@ -1503,13 +1500,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" s="6" t="n">
         <v>45200</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>14</v>
@@ -1534,13 +1531,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I34" s="6" t="n">
         <v>45201</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>14</v>
@@ -1560,18 +1557,18 @@
         <v>60217</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I35" s="6" t="n">
         <v>45202</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>14</v>
@@ -1596,13 +1593,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I36" s="6" t="n">
         <v>45203</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>14</v>
@@ -1627,13 +1624,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>45204</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>14</v>
@@ -1653,18 +1650,18 @@
         <v>60220</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I38" s="6" t="n">
         <v>45205</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>14</v>
@@ -1689,13 +1686,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I39" s="6" t="n">
         <v>45206</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>14</v>
@@ -1720,13 +1717,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I40" s="6" t="n">
         <v>45207</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>14</v>
@@ -1746,18 +1743,18 @@
         <v>60223</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I41" s="6" t="n">
         <v>45208</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>14</v>
@@ -1782,13 +1779,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I42" s="6" t="n">
         <v>45209</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>14</v>
@@ -1813,13 +1810,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>45210</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>14</v>
@@ -1839,18 +1836,18 @@
         <v>60226</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I44" s="6" t="n">
         <v>45211</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>14</v>
@@ -1875,13 +1872,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I45" s="6" t="n">
         <v>45212</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>14</v>
@@ -1906,13 +1903,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I46" s="6" t="n">
         <v>45213</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>14</v>
@@ -1932,18 +1929,18 @@
         <v>60229</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I47" s="6" t="n">
         <v>45214</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>14</v>
@@ -1968,13 +1965,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I48" s="6" t="n">
         <v>45215</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>14</v>
@@ -1999,13 +1996,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>45216</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>14</v>
@@ -2025,18 +2022,18 @@
         <v>60232</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I50" s="6" t="n">
         <v>45217</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>14</v>
@@ -2061,13 +2058,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I51" s="6" t="n">
         <v>45218</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>14</v>
@@ -2092,13 +2089,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I52" s="6" t="n">
         <v>45219</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>14</v>
@@ -2118,18 +2115,18 @@
         <v>60235</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I53" s="6" t="n">
         <v>45220</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>14</v>
@@ -2154,13 +2151,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I54" s="6" t="n">
         <v>45221</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>14</v>
@@ -2185,13 +2182,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>45222</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>14</v>
@@ -2211,21 +2208,21 @@
         <v>60238</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I56" s="6" t="n">
         <v>45223</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" customHeight="1" ht="20">
@@ -2247,13 +2244,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I57" s="6" t="n">
         <v>45224</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>14</v>
@@ -2273,12 +2270,12 @@
         <v>60098</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I58" s="6" t="n">
         <v>45083</v>
@@ -2287,7 +2284,7 @@
         <v>13</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" customHeight="1" ht="20">
@@ -2304,18 +2301,18 @@
         <v>60241</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I59" s="6" t="n">
         <v>45226</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>14</v>
@@ -2340,13 +2337,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I60" s="6" t="n">
         <v>45227</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>14</v>
@@ -2371,13 +2368,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I61" s="6" t="n">
         <v>45228</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>14</v>
@@ -2397,18 +2394,18 @@
         <v>60244</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I62" s="6" t="n">
         <v>45229</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K62" s="7" t="s">
         <v>14</v>
@@ -2433,13 +2430,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I63" s="6" t="n">
         <v>45230</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>14</v>
@@ -2464,13 +2461,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I64" s="6" t="n">
         <v>45231</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K64" s="7" t="s">
         <v>14</v>
@@ -2490,18 +2487,18 @@
         <v>60247</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I65" s="6" t="n">
         <v>45232</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>14</v>
@@ -2526,13 +2523,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I66" s="6" t="n">
         <v>45233</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K66" s="7" t="s">
         <v>14</v>
@@ -2557,13 +2554,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I67" s="6" t="n">
         <v>45234</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>14</v>
@@ -2583,18 +2580,18 @@
         <v>60250</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I68" s="6" t="n">
         <v>45235</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>14</v>
@@ -2619,13 +2616,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I69" s="6" t="n">
         <v>45236</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>14</v>
@@ -2650,13 +2647,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I70" s="6" t="n">
         <v>45237</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>14</v>
@@ -2676,18 +2673,18 @@
         <v>60253</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I71" s="6" t="n">
         <v>45238</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>14</v>
@@ -2712,13 +2709,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I72" s="6" t="n">
         <v>45239</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>14</v>
@@ -2743,13 +2740,13 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I73" s="6" t="n">
         <v>45240</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K73" s="7" t="s">
         <v>14</v>
@@ -2769,18 +2766,18 @@
         <v>60256</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I74" s="6" t="n">
         <v>45241</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K74" s="7" t="s">
         <v>14</v>
@@ -2805,13 +2802,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I75" s="6" t="n">
         <v>45242</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K75" s="7" t="s">
         <v>14</v>
@@ -2836,13 +2833,13 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I76" s="6" t="n">
         <v>45243</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K76" s="7" t="s">
         <v>14</v>
@@ -2862,18 +2859,18 @@
         <v>60259</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I77" s="6" t="n">
         <v>45244</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K77" s="7" t="s">
         <v>14</v>
@@ -2898,13 +2895,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I78" s="6" t="n">
         <v>45245</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K78" s="7" t="s">
         <v>14</v>
@@ -2929,13 +2926,13 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I79" s="6" t="n">
         <v>45246</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K79" s="7" t="s">
         <v>14</v>
@@ -2955,18 +2952,18 @@
         <v>60262</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I80" s="6" t="n">
         <v>45247</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K80" s="7" t="s">
         <v>14</v>
@@ -2991,13 +2988,13 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I81" s="6" t="n">
         <v>45248</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K81" s="7" t="s">
         <v>14</v>
@@ -3022,13 +3019,13 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I82" s="6" t="n">
         <v>45249</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K82" s="7" t="s">
         <v>14</v>
@@ -3048,18 +3045,18 @@
         <v>60265</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I83" s="6" t="n">
         <v>45250</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K83" s="7" t="s">
         <v>14</v>
@@ -3084,13 +3081,13 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I84" s="6" t="n">
         <v>45251</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K84" s="7" t="s">
         <v>14</v>
@@ -3115,13 +3112,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I85" s="6" t="n">
         <v>45252</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K85" s="7" t="s">
         <v>14</v>
@@ -3141,18 +3138,18 @@
         <v>60268</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I86" s="6" t="n">
         <v>45253</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K86" s="7" t="s">
         <v>14</v>
@@ -3177,13 +3174,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I87" s="6" t="n">
         <v>45254</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K87" s="7" t="s">
         <v>14</v>
@@ -3208,13 +3205,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I88" s="6" t="n">
         <v>45255</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K88" s="7" t="s">
         <v>14</v>
@@ -3234,18 +3231,18 @@
         <v>60271</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I89" s="6" t="n">
         <v>45256</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K89" s="7" t="s">
         <v>14</v>
@@ -3270,13 +3267,13 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c r="H90" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I90" s="6" t="n">
         <v>45257</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K90" s="7" t="s">
         <v>14</v>
@@ -3301,13 +3298,13 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I91" s="6" t="n">
         <v>45258</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K91" s="7" t="s">
         <v>14</v>
@@ -3315,61 +3312,61 @@
     </row>
     <row r="92" customHeight="1" ht="20">
       <c r="A92" s="5" t="n">
-        <v>500099</v>
+        <v>500100</v>
       </c>
       <c r="B92" s="6" t="n">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="C92" s="5" t="n">
         <v>2500</v>
       </c>
       <c r="D92" s="5" t="n">
-        <v>60115</v>
+        <v>60275</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="7" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="I92" s="6" t="n">
-        <v>45100</v>
+        <v>45260</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" customHeight="1" ht="20">
       <c r="A93" s="5" t="n">
-        <v>500100</v>
+        <v>500110</v>
       </c>
       <c r="B93" s="6" t="n">
-        <v>45272</v>
+        <v>45504</v>
       </c>
       <c r="C93" s="5" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="D93" s="5" t="n">
-        <v>60275</v>
+        <v>60101</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="7" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="I93" s="6" t="n">
-        <v>45260</v>
+        <v>45086</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="K93" s="7" t="s">
         <v>14</v>
@@ -3377,92 +3374,92 @@
     </row>
     <row r="94" customHeight="1" ht="20">
       <c r="A94" s="5" t="n">
-        <v>500101</v>
+        <v>500118</v>
       </c>
       <c r="B94" s="6" t="n">
-        <v>45273</v>
+        <v>45507</v>
       </c>
       <c r="C94" s="5" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D94" s="5" t="n">
-        <v>60114</v>
+        <v>60290</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="7" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="I94" s="6" t="n">
-        <v>45099</v>
+        <v>45507</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="K94" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" customHeight="1" ht="20">
       <c r="A95" s="5" t="n">
-        <v>500107</v>
+        <v>500117</v>
       </c>
       <c r="B95" s="6" t="n">
-        <v>45483</v>
+        <v>45507</v>
       </c>
       <c r="C95" s="5" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="D95" s="5" t="n">
-        <v>60111</v>
+        <v>60286</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c r="H95" s="7" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="I95" s="6" t="n">
-        <v>45096</v>
+        <v>45507</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="K95" s="7" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
     </row>
     <row r="96" customHeight="1" ht="20">
       <c r="A96" s="5" t="n">
-        <v>500103</v>
+        <v>500107</v>
       </c>
       <c r="B96" s="6" t="n">
-        <v>45487</v>
+        <v>45483</v>
       </c>
       <c r="C96" s="5" t="n">
         <v>2500</v>
       </c>
       <c r="D96" s="5" t="n">
-        <v>60095</v>
+        <v>60111</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c r="H96" s="7" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I96" s="6" t="n">
-        <v>45080</v>
+        <v>45096</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="K96" s="7" t="s">
         <v>14</v>
@@ -3470,50 +3467,50 @@
     </row>
     <row r="97" customHeight="1" ht="20">
       <c r="A97" s="5" t="n">
-        <v>500104</v>
+        <v>500119</v>
       </c>
       <c r="B97" s="6" t="n">
-        <v>45487</v>
+        <v>45507</v>
       </c>
       <c r="C97" s="5" t="n">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="D97" s="5" t="n">
-        <v>60099</v>
+        <v>60291</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c r="H97" s="7" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="I97" s="6" t="n">
-        <v>45084</v>
+        <v>45507</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="98" customHeight="1" ht="20">
       <c r="A98" s="5" t="n">
-        <v>500105</v>
+        <v>500109</v>
       </c>
       <c r="B98" s="6" t="n">
-        <v>45488</v>
+        <v>45504</v>
       </c>
       <c r="C98" s="5" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="D98" s="5" t="n">
-        <v>60096</v>
+        <v>60098</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
@@ -3521,7 +3518,7 @@
         <v>23</v>
       </c>
       <c r="I98" s="6" t="n">
-        <v>45081</v>
+        <v>45083</v>
       </c>
       <c r="J98" s="7" t="s">
         <v>13</v>
@@ -3532,7 +3529,7 @@
     </row>
     <row r="99" customHeight="1" ht="20">
       <c r="A99" s="5" t="n">
-        <v>500102</v>
+        <v>500103</v>
       </c>
       <c r="B99" s="6" t="n">
         <v>45487</v>
@@ -3541,23 +3538,364 @@
         <v>2500</v>
       </c>
       <c r="D99" s="5" t="n">
-        <v>60191</v>
+        <v>60095</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I99" s="6" t="n">
+        <v>45080</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K99" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" ht="20">
+      <c r="A100" s="5" t="n">
+        <v>500116</v>
+      </c>
+      <c r="B100" s="6" t="n">
+        <v>45507</v>
+      </c>
+      <c r="C100" s="5" t="n">
+        <v>600</v>
+      </c>
+      <c r="D100" s="5" t="n">
+        <v>60289</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I100" s="6" t="n">
+        <v>45507</v>
+      </c>
+      <c r="J100" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K100" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" ht="20">
+      <c r="A101" s="5" t="n">
+        <v>500111</v>
+      </c>
+      <c r="B101" s="6" t="n">
+        <v>45504</v>
+      </c>
+      <c r="C101" s="5" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D101" s="5" t="n">
+        <v>60099</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I101" s="6" t="n">
+        <v>45084</v>
+      </c>
+      <c r="J101" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K101" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" ht="20">
+      <c r="A102" s="5" t="n">
+        <v>500104</v>
+      </c>
+      <c r="B102" s="6" t="n">
+        <v>45487</v>
+      </c>
+      <c r="C102" s="5" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D102" s="5" t="n">
+        <v>60099</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I102" s="6" t="n">
+        <v>45084</v>
+      </c>
+      <c r="J102" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K102" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" ht="20">
+      <c r="A103" s="5" t="n">
+        <v>500105</v>
+      </c>
+      <c r="B103" s="6" t="n">
+        <v>45488</v>
+      </c>
+      <c r="C103" s="5" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D103" s="5" t="n">
+        <v>60096</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I103" s="6" t="n">
+        <v>45081</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K103" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" ht="20">
+      <c r="A104" s="5" t="n">
+        <v>500108</v>
+      </c>
+      <c r="B104" s="6" t="n">
+        <v>45504</v>
+      </c>
+      <c r="C104" s="5" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D104" s="5" t="n">
+        <v>60100</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I99" s="6" t="n">
+      <c r="I104" s="6" t="n">
+        <v>45085</v>
+      </c>
+      <c r="J104" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K104" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" ht="20">
+      <c r="A105" s="5" t="n">
+        <v>500115</v>
+      </c>
+      <c r="B105" s="6" t="n">
+        <v>45507</v>
+      </c>
+      <c r="C105" s="5" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D105" s="5" t="n">
+        <v>60290</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I105" s="6" t="n">
+        <v>45507</v>
+      </c>
+      <c r="J105" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K105" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" ht="20">
+      <c r="A106" s="5" t="n">
+        <v>500112</v>
+      </c>
+      <c r="B106" s="6" t="n">
+        <v>45504</v>
+      </c>
+      <c r="C106" s="5" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D106" s="5" t="n">
+        <v>60103</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I106" s="6" t="n">
+        <v>45088</v>
+      </c>
+      <c r="J106" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K106" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" ht="20">
+      <c r="A107" s="5" t="n">
+        <v>500114</v>
+      </c>
+      <c r="B107" s="6" t="n">
+        <v>45505</v>
+      </c>
+      <c r="C107" s="5" t="n">
+        <v>800</v>
+      </c>
+      <c r="D107" s="5" t="n">
+        <v>60285</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I107" s="6" t="n">
+        <v>45505</v>
+      </c>
+      <c r="J107" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K107" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" ht="20">
+      <c r="A108" s="5" t="n">
+        <v>500120</v>
+      </c>
+      <c r="B108" s="6" t="n">
+        <v>45507</v>
+      </c>
+      <c r="C108" s="5" t="n">
+        <v>600</v>
+      </c>
+      <c r="D108" s="5" t="n">
+        <v>60296</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I108" s="6" t="n">
+        <v>45507</v>
+      </c>
+      <c r="J108" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K108" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" ht="20">
+      <c r="A109" s="5" t="n">
+        <v>500102</v>
+      </c>
+      <c r="B109" s="6" t="n">
+        <v>45487</v>
+      </c>
+      <c r="C109" s="5" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D109" s="5" t="n">
+        <v>60191</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I109" s="6" t="n">
         <v>45176</v>
       </c>
-      <c r="J99" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K99" s="7" t="s">
+      <c r="J109" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K109" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" ht="20">
+      <c r="A110" s="5" t="n">
+        <v>500113</v>
+      </c>
+      <c r="B110" s="6" t="n">
+        <v>45504</v>
+      </c>
+      <c r="C110" s="5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D110" s="5" t="n">
+        <v>60105</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I110" s="6" t="n">
+        <v>45090</v>
+      </c>
+      <c r="J110" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K110" s="7" t="s">
         <v>14</v>
       </c>
     </row>
